--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.81935386781143</v>
+        <v>2.146258333333333</v>
       </c>
       <c r="H2">
-        <v>1.81935386781143</v>
+        <v>6.438775</v>
       </c>
       <c r="I2">
-        <v>0.3675424572175259</v>
+        <v>0.3745961416936294</v>
       </c>
       <c r="J2">
-        <v>0.3675424572175259</v>
+        <v>0.3745961416936293</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>16.7071597610597</v>
+        <v>22.41709</v>
       </c>
       <c r="N2">
-        <v>16.7071597610597</v>
+        <v>67.25127000000001</v>
       </c>
       <c r="O2">
-        <v>0.5290136320311603</v>
+        <v>0.3988455747018376</v>
       </c>
       <c r="P2">
-        <v>0.5290136320311603</v>
+        <v>0.3988455747018376</v>
       </c>
       <c r="Q2">
-        <v>30.39623573142745</v>
+        <v>48.11286622158334</v>
       </c>
       <c r="R2">
-        <v>30.39623573142745</v>
+        <v>433.01579599425</v>
       </c>
       <c r="S2">
-        <v>0.1944349702183007</v>
+        <v>0.1494060134148866</v>
       </c>
       <c r="T2">
-        <v>0.1944349702183007</v>
+        <v>0.1494060134148866</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.81935386781143</v>
+        <v>2.146258333333333</v>
       </c>
       <c r="H3">
-        <v>1.81935386781143</v>
+        <v>6.438775</v>
       </c>
       <c r="I3">
-        <v>0.3675424572175259</v>
+        <v>0.3745961416936294</v>
       </c>
       <c r="J3">
-        <v>0.3675424572175259</v>
+        <v>0.3745961416936293</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.8745590254906</v>
+        <v>16.78189033333333</v>
       </c>
       <c r="N3">
-        <v>14.8745590254906</v>
+        <v>50.345671</v>
       </c>
       <c r="O3">
-        <v>0.4709863679688398</v>
+        <v>0.2985839238983091</v>
       </c>
       <c r="P3">
-        <v>0.4709863679688398</v>
+        <v>0.2985839238983091</v>
       </c>
       <c r="Q3">
-        <v>27.06208649501574</v>
+        <v>36.01827197700278</v>
       </c>
       <c r="R3">
-        <v>27.06208649501574</v>
+        <v>324.164447793025</v>
       </c>
       <c r="S3">
-        <v>0.1731074869992252</v>
+        <v>0.1118483858640508</v>
       </c>
       <c r="T3">
-        <v>0.1731074869992252</v>
+        <v>0.1118483858640508</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.89071285324006</v>
+        <v>2.146258333333333</v>
       </c>
       <c r="H4">
-        <v>1.89071285324006</v>
+        <v>6.438775</v>
       </c>
       <c r="I4">
-        <v>0.3819582656608488</v>
+        <v>0.3745961416936294</v>
       </c>
       <c r="J4">
-        <v>0.3819582656608488</v>
+        <v>0.3745961416936293</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.7071597610597</v>
+        <v>17.00595566666667</v>
       </c>
       <c r="N4">
-        <v>16.7071597610597</v>
+        <v>51.017867</v>
       </c>
       <c r="O4">
-        <v>0.5290136320311603</v>
+        <v>0.3025705013998533</v>
       </c>
       <c r="P4">
-        <v>0.5290136320311603</v>
+        <v>0.3025705013998533</v>
       </c>
       <c r="Q4">
-        <v>31.58844170137071</v>
+        <v>36.49917406588055</v>
       </c>
       <c r="R4">
-        <v>31.58844170137071</v>
+        <v>328.492566592925</v>
       </c>
       <c r="S4">
-        <v>0.2020611294015685</v>
+        <v>0.1133417424146919</v>
       </c>
       <c r="T4">
-        <v>0.2020611294015685</v>
+        <v>0.1133417424146919</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.89071285324006</v>
+        <v>1.966337333333333</v>
       </c>
       <c r="H5">
-        <v>1.89071285324006</v>
+        <v>5.899012</v>
       </c>
       <c r="I5">
-        <v>0.3819582656608488</v>
+        <v>0.3431937185263377</v>
       </c>
       <c r="J5">
-        <v>0.3819582656608488</v>
+        <v>0.3431937185263377</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>14.8745590254906</v>
+        <v>22.41709</v>
       </c>
       <c r="N5">
-        <v>14.8745590254906</v>
+        <v>67.25127000000001</v>
       </c>
       <c r="O5">
-        <v>0.4709863679688398</v>
+        <v>0.3988455747018376</v>
       </c>
       <c r="P5">
-        <v>0.4709863679688398</v>
+        <v>0.3988455747018376</v>
       </c>
       <c r="Q5">
-        <v>28.12351993577302</v>
+        <v>44.07956097169334</v>
       </c>
       <c r="R5">
-        <v>28.12351993577302</v>
+        <v>396.71604874524</v>
       </c>
       <c r="S5">
-        <v>0.1798971362592804</v>
+        <v>0.1368812958996978</v>
       </c>
       <c r="T5">
-        <v>0.1798971362592804</v>
+        <v>0.1368812958996979</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.23998416989814</v>
+        <v>1.966337333333333</v>
       </c>
       <c r="H6">
-        <v>1.23998416989814</v>
+        <v>5.899012</v>
       </c>
       <c r="I6">
-        <v>0.2504992771216254</v>
+        <v>0.3431937185263377</v>
       </c>
       <c r="J6">
-        <v>0.2504992771216254</v>
+        <v>0.3431937185263377</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.7071597610597</v>
+        <v>16.78189033333333</v>
       </c>
       <c r="N6">
-        <v>16.7071597610597</v>
+        <v>50.345671</v>
       </c>
       <c r="O6">
-        <v>0.5290136320311603</v>
+        <v>0.2985839238983091</v>
       </c>
       <c r="P6">
-        <v>0.5290136320311603</v>
+        <v>0.2985839238983091</v>
       </c>
       <c r="Q6">
-        <v>20.71661362767322</v>
+        <v>32.99885748633911</v>
       </c>
       <c r="R6">
-        <v>20.71661362767322</v>
+        <v>296.989717377052</v>
       </c>
       <c r="S6">
-        <v>0.1325175324112912</v>
+        <v>0.1024721271348457</v>
       </c>
       <c r="T6">
-        <v>0.1325175324112912</v>
+        <v>0.1024721271348457</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.23998416989814</v>
+        <v>1.966337333333333</v>
       </c>
       <c r="H7">
-        <v>1.23998416989814</v>
+        <v>5.899012</v>
       </c>
       <c r="I7">
-        <v>0.2504992771216254</v>
+        <v>0.3431937185263377</v>
       </c>
       <c r="J7">
-        <v>0.2504992771216254</v>
+        <v>0.3431937185263377</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.8745590254906</v>
+        <v>17.00595566666667</v>
       </c>
       <c r="N7">
-        <v>14.8745590254906</v>
+        <v>51.017867</v>
       </c>
       <c r="O7">
-        <v>0.4709863679688398</v>
+        <v>0.3025705013998533</v>
       </c>
       <c r="P7">
-        <v>0.4709863679688398</v>
+        <v>0.3025705013998533</v>
       </c>
       <c r="Q7">
-        <v>18.44421772582385</v>
+        <v>33.43944551637822</v>
       </c>
       <c r="R7">
-        <v>18.44421772582385</v>
+        <v>300.955009647404</v>
       </c>
       <c r="S7">
-        <v>0.1179817447103342</v>
+        <v>0.1038402954917941</v>
       </c>
       <c r="T7">
-        <v>0.1179817447103342</v>
+        <v>0.1038402954917941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.616930333333333</v>
+      </c>
+      <c r="H8">
+        <v>4.850791</v>
+      </c>
+      <c r="I8">
+        <v>0.282210139780033</v>
+      </c>
+      <c r="J8">
+        <v>0.282210139780033</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>22.41709</v>
+      </c>
+      <c r="N8">
+        <v>67.25127000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.3988455747018376</v>
+      </c>
+      <c r="P8">
+        <v>0.3988455747018376</v>
+      </c>
+      <c r="Q8">
+        <v>36.24687280606334</v>
+      </c>
+      <c r="R8">
+        <v>326.22185525457</v>
+      </c>
+      <c r="S8">
+        <v>0.1125582653872532</v>
+      </c>
+      <c r="T8">
+        <v>0.1125582653872532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.616930333333333</v>
+      </c>
+      <c r="H9">
+        <v>4.850791</v>
+      </c>
+      <c r="I9">
+        <v>0.282210139780033</v>
+      </c>
+      <c r="J9">
+        <v>0.282210139780033</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>16.78189033333333</v>
+      </c>
+      <c r="N9">
+        <v>50.345671</v>
+      </c>
+      <c r="O9">
+        <v>0.2985839238983091</v>
+      </c>
+      <c r="P9">
+        <v>0.2985839238983091</v>
+      </c>
+      <c r="Q9">
+        <v>27.13514753064011</v>
+      </c>
+      <c r="R9">
+        <v>244.216327775761</v>
+      </c>
+      <c r="S9">
+        <v>0.08426341089941254</v>
+      </c>
+      <c r="T9">
+        <v>0.08426341089941256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.616930333333333</v>
+      </c>
+      <c r="H10">
+        <v>4.850791</v>
+      </c>
+      <c r="I10">
+        <v>0.282210139780033</v>
+      </c>
+      <c r="J10">
+        <v>0.282210139780033</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>17.00595566666667</v>
+      </c>
+      <c r="N10">
+        <v>51.017867</v>
+      </c>
+      <c r="O10">
+        <v>0.3025705013998533</v>
+      </c>
+      <c r="P10">
+        <v>0.3025705013998533</v>
+      </c>
+      <c r="Q10">
+        <v>27.49744556475522</v>
+      </c>
+      <c r="R10">
+        <v>247.477010082797</v>
+      </c>
+      <c r="S10">
+        <v>0.08538846349336726</v>
+      </c>
+      <c r="T10">
+        <v>0.08538846349336728</v>
       </c>
     </row>
   </sheetData>
